--- a/demo/config/config.xlsx
+++ b/demo/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13650" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="14" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="award" sheetId="15" r:id="rId7"/>
     <sheet name="readme" sheetId="7" r:id="rId8"/>
     <sheet name="sms" sheetId="16" r:id="rId9"/>
+    <sheet name="rabbit" sheetId="17" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="374">
   <si>
     <t>#key</t>
   </si>
@@ -1317,6 +1318,38 @@
   </si>
   <si>
     <t>重新获取验证码时间</t>
+  </si>
+  <si>
+    <t>host</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>openlog</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2165,6 +2198,86 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+      <c r="C5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
@@ -4147,7 +4260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -4225,7 +4338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4508,7 +4621,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/demo/config/config.xlsx
+++ b/demo/config/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13650" activeTab="9"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="14" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="sms" sheetId="16" r:id="rId9"/>
     <sheet name="rabbit" sheetId="17" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
   <si>
     <t>#key</t>
   </si>
@@ -1321,42 +1321,34 @@
   </si>
   <si>
     <t>host</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
   <si>
     <t>port</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>user_name</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>root</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>openlog</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1430,19 +1422,128 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1464,7 +1565,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor theme="9" tint="0.7993408001953185"/>
+        <bgColor theme="9" tint="0.799340800195319"/>
       </patternFill>
     </fill>
     <fill>
@@ -1485,8 +1586,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1641,42 +1916,287 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1693,114 +2213,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="50" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="50" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="51" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="51" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="51" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="50" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 2" xfId="4"/>
-    <cellStyle name="常规 3" xfId="6"/>
-    <cellStyle name="常规 4" xfId="7"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 3" xfId="51"/>
+    <cellStyle name="常规 4" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2083,28 +2636,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="31" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="29.25" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="48" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="49" customFormat="1">
+    <row r="1" s="60" customFormat="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2674,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" s="49" customFormat="1">
+    <row r="2" s="60" customFormat="1" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2690,7 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -2153,7 +2706,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2169,44 +2722,45 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="48">
         <v>0</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="30" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -2226,31 +2780,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B3">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -2258,121 +2812,123 @@
         <v>123456</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>372</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>373</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="78.375" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="32.875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="78.375" style="31" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="44" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" s="53" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="E1" s="50" t="s">
+      <c r="B1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:H3"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="49.375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="18.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="49.375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="36" customFormat="1">
+    <row r="1" s="42" customFormat="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2382,268 +2938,268 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="37" customFormat="1">
-      <c r="A2" s="41" t="s">
+    <row r="2" s="44" customFormat="1" spans="1:4">
+      <c r="A2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="44">
         <v>100</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="35">
         <v>4</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="35">
         <v>50</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="35">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="36">
         <v>30</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="36">
         <v>10</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="36">
         <v>10</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="36">
         <v>20</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="36">
         <v>5</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="36">
         <v>-1</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="36">
         <v>1119</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="36">
         <v>67</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="36">
         <v>0</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="36">
         <v>90</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
@@ -2651,13 +3207,13 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="36">
         <v>180</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
@@ -2665,13 +3221,13 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="36">
         <v>365</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
@@ -2679,1596 +3235,1599 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="36">
         <v>60</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="36">
         <v>180</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="36">
         <v>1</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="36">
         <v>30000</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="36">
         <v>30000</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="35" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" tooltip="http://121.41.58.2:8180/"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId1" display="http://121.41.58.2:8180/" tooltip="http://121.41.58.2:8180/"/>
+    <hyperlink ref="B13" r:id="rId2" display="http://121.41.58.2:8780/"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="61.75" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="30.625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="47.875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="61.75" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="30" customFormat="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="34" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A1" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="34" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="31" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="36">
         <v>0</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="36">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="31" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="36">
         <v>0</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="36">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="36">
         <v>2</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="57" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="31" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="36">
         <v>0</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="36">
         <v>1</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="35" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="36">
         <v>2</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="56" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="31" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="36">
         <v>1</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="35" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="36">
         <v>2</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="35" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="36">
         <v>3</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="35" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="36">
         <v>1</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="35" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="36">
         <v>2</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="35" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="36">
         <v>3</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="35" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="36">
         <v>4</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="36">
         <v>5</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="35" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="36">
         <v>4</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="36">
         <v>5</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="35" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="36">
         <v>0</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="36">
         <v>1</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="35" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="36">
         <v>1</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="30" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="36">
         <v>2</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="30" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="36">
         <v>1</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="35" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="36">
         <v>2</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="35" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="36">
         <v>1</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="35" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="32">
+      <c r="B50" s="36">
         <v>2</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="35" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B51" s="36">
         <v>3</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="36">
         <v>4</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12" customHeight="1"/>
+    <row r="53" ht="12" customHeight="1"/>
     <row r="54" spans="1:3">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="35" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="35" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B60" s="36">
         <v>1</v>
       </c>
-      <c r="C60" s="31">
+      <c r="C60" s="35">
         <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="36">
         <v>2</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="35">
         <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="36">
         <v>3</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="35">
         <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="32">
+      <c r="B65" s="36">
         <v>1</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="35" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="32">
+      <c r="B66" s="36">
         <v>2</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="35" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="36">
         <v>0</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="35" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B70" s="32">
+      <c r="B70" s="36">
         <v>1</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B71" s="32">
+      <c r="B71" s="36">
         <v>2</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="35" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B74" s="32">
+      <c r="B74" s="36">
         <v>1</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="35" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="B75" s="32">
+      <c r="B75" s="36">
         <v>2</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="35" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B76" s="32">
+      <c r="B76" s="36">
         <v>3</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="35" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="B77" s="32">
+      <c r="B77" s="36">
         <v>4</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="35" t="s">
         <v>196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A73:C73"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="32.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="29.25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="48.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="14" customWidth="1"/>
-    <col min="5" max="6" width="9" style="14"/>
-    <col min="7" max="7" width="9" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="32.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="18" customWidth="1"/>
+    <col min="5" max="6" width="9" style="18"/>
+    <col min="7" max="7" width="9" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="18.75">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="16" customFormat="1" ht="19.5" spans="1:7">
+      <c r="A1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1">
-      <c r="A2" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" s="16" customFormat="1" spans="1:7">
+      <c r="A2" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="27">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" s="12" customFormat="1">
-      <c r="A3" s="22" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" s="16" customFormat="1" spans="1:7">
+      <c r="A3" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="27">
         <v>-1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="22" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="27" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="27">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="27" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="27">
         <v>4</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="27">
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="27" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="27">
         <v>32</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="27">
         <v>33</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="27">
         <v>34</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="27">
         <v>35</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="27">
         <v>36</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="27" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="27">
         <v>37</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="27">
         <v>38</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="27" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="27">
         <v>39</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="27">
         <v>101</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="27">
         <v>102</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="27">
         <v>103</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="27" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="27">
         <v>104</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="27" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="27">
         <v>105</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="27" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="27">
         <v>106</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="27" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="27">
         <v>107</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="27" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="27">
         <v>109</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="27" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="27">
         <v>110</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="27" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="27">
         <v>111</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="27" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="27">
         <v>112</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="27" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="27">
         <v>113</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="27" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="27">
         <v>114</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="27" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="27">
         <v>202</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="27" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="27">
         <v>203</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="27" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="27">
         <v>204</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="27" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="27">
         <v>205</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="27" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="27">
         <v>206</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="27" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="27">
         <v>207</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="27" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="27">
         <v>208</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="27" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="27">
         <v>209</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="27" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="27">
         <v>210</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="27" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="27">
         <v>211</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="27" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="27">
         <v>212</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="32">
         <f t="shared" ref="B46:B52" si="0">B45+1</f>
         <v>213</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="31" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="32">
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="31" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="32">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="32" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="32">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="32" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="32">
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="31" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="32">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="31" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="32">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="29" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="33" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="18">
         <v>10001</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="19" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="18">
         <f>B55+1</f>
         <v>10002</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="19" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="18">
         <f t="shared" ref="B57:B61" si="1">B56+1</f>
         <v>10003</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="19" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="18">
         <f t="shared" si="1"/>
         <v>10004</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="19" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="18">
         <f t="shared" si="1"/>
         <v>10005</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="19" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="18">
         <f t="shared" si="1"/>
         <v>10006</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="19" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="18">
         <f t="shared" si="1"/>
         <v>10007</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="19" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="18">
         <v>10008</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="19" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="18">
         <v>10009</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="19" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="18">
         <v>10010</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="19" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="18">
         <v>10011</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="19" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="18">
         <v>10012</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="19" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="18">
         <f t="shared" ref="B67:B71" si="2">B66+1</f>
         <v>10013</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="19" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="18">
         <f t="shared" si="2"/>
         <v>10014</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="19" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="18">
         <f t="shared" si="2"/>
         <v>10015</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="19" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="18">
         <f t="shared" si="2"/>
         <v>10016</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="19" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="18">
         <f t="shared" si="2"/>
         <v>10017</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="19" t="s">
         <v>329</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="11" style="7" customWidth="1"/>
-    <col min="3" max="3" width="77.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11" style="11" customWidth="1"/>
+    <col min="3" max="3" width="77.25" style="11" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4276,10 +4835,10 @@
       <c r="A1" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>332</v>
       </c>
       <c r="D1" t="s">
@@ -4299,10 +4858,10 @@
       <c r="C2" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="14" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4310,49 +4869,50 @@
       <c r="A3" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>342</v>
       </c>
       <c r="D3" t="s">
         <v>343</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>343</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"oracle,mysql"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="38.875" customWidth="1"/>
-    <col min="2" max="2" width="100" style="5" customWidth="1"/>
+    <col min="2" max="2" width="100" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -4362,54 +4922,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>348</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4423,184 +4984,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="62.25" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" ht="62.25" customHeight="1" spans="1:16">
+      <c r="A3" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="73.5" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" ht="73.5" customHeight="1" spans="1:16">
+      <c r="A5" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="100.5" customHeight="1">
-      <c r="A7" s="60" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" ht="100.5" customHeight="1" spans="1:16">
+      <c r="A7" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="62"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:16">
+      <c r="A8" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" ht="42.75" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" ht="42.75" customHeight="1" spans="1:16">
+      <c r="A9" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="62"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4610,21 +5171,22 @@
     <mergeCell ref="A7:P7"/>
     <mergeCell ref="A9:P9"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -4657,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>358</v>
       </c>
@@ -4665,7 +5227,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>360</v>
       </c>
@@ -4673,7 +5235,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -4707,7 +5269,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>